--- a/notebooks/test_output/classwise_metrics.xlsx
+++ b/notebooks/test_output/classwise_metrics.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6575342465753424</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7218045112781954</v>
+        <v>0.8089887640449438</v>
       </c>
       <c r="G2" t="n">
         <v>120</v>
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.775</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.8785046728971962</v>
       </c>
       <c r="G3" t="n">
         <v>120</v>
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7542372881355932</v>
+        <v>0.8739495798319328</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7478991596638656</v>
+        <v>0.8702928870292888</v>
       </c>
       <c r="G4" t="n">
         <v>120</v>

--- a/notebooks/test_output/classwise_metrics.xlsx
+++ b/notebooks/test_output/classwise_metrics.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.8091603053435115</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8089887640449438</v>
+        <v>0.8446215139442231</v>
       </c>
       <c r="G2" t="n">
         <v>120</v>
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9900990099009901</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8785046728971962</v>
+        <v>0.9049773755656109</v>
       </c>
       <c r="G3" t="n">
         <v>120</v>
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8739495798319328</v>
+        <v>0.8828125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8702928870292888</v>
+        <v>0.9112903225806451</v>
       </c>
       <c r="G4" t="n">
         <v>120</v>

--- a/notebooks/test_output/classwise_metrics.xlsx
+++ b/notebooks/test_output/classwise_metrics.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8091603053435115</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8446215139442231</v>
+        <v>0.8502024291497976</v>
       </c>
       <c r="G2" t="n">
         <v>120</v>
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8828125</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.975</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9112903225806451</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G4" t="n">
         <v>120</v>
